--- a/database/industries/shoyande/shepaksa/product/quarterly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5ADF91-8207-486F-ACFA-59E0EE6BD4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236CC2A4-EC79-4C60-BCDA-D1897645FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپاکسا-پاکسان‌</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/06</t>
@@ -571,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N68"/>
+  <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,13 +574,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,13 +586,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,13 +598,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -638,13 +608,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -655,13 +620,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -672,13 +632,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -687,13 +642,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -714,23 +664,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -739,204 +674,124 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>8532</v>
+        <v>9815</v>
       </c>
       <c r="F10" s="9">
-        <v>10768</v>
+        <v>14045</v>
       </c>
       <c r="G10" s="9">
-        <v>13070</v>
-      </c>
-      <c r="H10" s="9">
-        <v>8901</v>
+        <v>5685</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="9">
-        <v>9096</v>
-      </c>
-      <c r="J10" s="9">
-        <v>9815</v>
-      </c>
-      <c r="K10" s="9">
-        <v>14045</v>
-      </c>
-      <c r="L10" s="9">
-        <v>5685</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9">
         <v>5876</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>14576</v>
+        <v>18799</v>
       </c>
       <c r="F11" s="11">
-        <v>15407</v>
+        <v>21236</v>
       </c>
       <c r="G11" s="11">
-        <v>18883</v>
+        <v>10578</v>
       </c>
       <c r="H11" s="11">
-        <v>15311</v>
+        <v>13035</v>
       </c>
       <c r="I11" s="11">
-        <v>13062</v>
-      </c>
-      <c r="J11" s="11">
-        <v>18799</v>
-      </c>
-      <c r="K11" s="11">
-        <v>21236</v>
-      </c>
-      <c r="L11" s="11">
-        <v>10578</v>
-      </c>
-      <c r="M11" s="11">
-        <v>13035</v>
-      </c>
-      <c r="N11" s="11">
         <v>20131</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>5137</v>
+        <v>6700</v>
       </c>
       <c r="F12" s="9">
-        <v>4712</v>
+        <v>8480</v>
       </c>
       <c r="G12" s="9">
-        <v>6893</v>
+        <v>3637</v>
       </c>
       <c r="H12" s="9">
-        <v>6466</v>
+        <v>4373</v>
       </c>
       <c r="I12" s="9">
-        <v>4475</v>
-      </c>
-      <c r="J12" s="9">
-        <v>6700</v>
-      </c>
-      <c r="K12" s="9">
-        <v>8480</v>
-      </c>
-      <c r="L12" s="9">
-        <v>3637</v>
-      </c>
-      <c r="M12" s="9">
-        <v>4373</v>
-      </c>
-      <c r="N12" s="9">
         <v>4727</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
+      <c r="E13" s="11">
+        <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="11">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>28245</v>
+        <v>35314</v>
       </c>
       <c r="F14" s="13">
-        <v>30887</v>
+        <v>43761</v>
       </c>
       <c r="G14" s="13">
-        <v>38846</v>
+        <v>19900</v>
       </c>
       <c r="H14" s="13">
-        <v>30678</v>
+        <v>17408</v>
       </c>
       <c r="I14" s="13">
-        <v>26633</v>
-      </c>
-      <c r="J14" s="13">
-        <v>35314</v>
-      </c>
-      <c r="K14" s="13">
-        <v>43761</v>
-      </c>
-      <c r="L14" s="13">
-        <v>19900</v>
-      </c>
-      <c r="M14" s="13">
-        <v>17408</v>
-      </c>
-      <c r="N14" s="13">
         <v>30734</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -945,13 +800,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -960,13 +810,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -975,15 +820,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1002,23 +842,8 @@
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1027,243 +852,148 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>6772</v>
+        <v>13342</v>
       </c>
       <c r="F20" s="9">
-        <v>8646</v>
+        <v>12728</v>
       </c>
       <c r="G20" s="9">
-        <v>6554</v>
-      </c>
-      <c r="H20" s="9">
-        <v>7768</v>
+        <v>6973</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="9">
-        <v>7649</v>
-      </c>
-      <c r="J20" s="9">
-        <v>13342</v>
-      </c>
-      <c r="K20" s="9">
-        <v>12728</v>
-      </c>
-      <c r="L20" s="9">
-        <v>6973</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="9">
         <v>6047</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>14250</v>
+        <v>18373</v>
       </c>
       <c r="F21" s="11">
-        <v>15339</v>
+        <v>21873</v>
       </c>
       <c r="G21" s="11">
-        <v>19914</v>
+        <v>9396</v>
       </c>
       <c r="H21" s="11">
-        <v>15003</v>
+        <v>14658</v>
       </c>
       <c r="I21" s="11">
-        <v>11931</v>
-      </c>
-      <c r="J21" s="11">
-        <v>18373</v>
-      </c>
-      <c r="K21" s="11">
-        <v>21873</v>
-      </c>
-      <c r="L21" s="11">
-        <v>9396</v>
-      </c>
-      <c r="M21" s="11">
-        <v>14658</v>
-      </c>
-      <c r="N21" s="11">
         <v>20273</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>4916</v>
+        <v>6604</v>
       </c>
       <c r="F22" s="9">
-        <v>4832</v>
+        <v>7672</v>
       </c>
       <c r="G22" s="9">
-        <v>7094</v>
+        <v>3693</v>
       </c>
       <c r="H22" s="9">
-        <v>6359</v>
+        <v>4093</v>
       </c>
       <c r="I22" s="9">
-        <v>4242</v>
-      </c>
-      <c r="J22" s="9">
-        <v>6604</v>
-      </c>
-      <c r="K22" s="9">
-        <v>7672</v>
-      </c>
-      <c r="L22" s="9">
-        <v>3693</v>
-      </c>
-      <c r="M22" s="9">
-        <v>4093</v>
-      </c>
-      <c r="N22" s="9">
         <v>4984</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>25938</v>
+        <v>38319</v>
       </c>
       <c r="F25" s="15">
-        <v>28817</v>
+        <v>42273</v>
       </c>
       <c r="G25" s="15">
-        <v>33562</v>
+        <v>20062</v>
       </c>
       <c r="H25" s="15">
-        <v>29130</v>
+        <v>18751</v>
       </c>
       <c r="I25" s="15">
-        <v>23822</v>
-      </c>
-      <c r="J25" s="15">
-        <v>38319</v>
-      </c>
-      <c r="K25" s="15">
-        <v>42273</v>
-      </c>
-      <c r="L25" s="15">
-        <v>20062</v>
-      </c>
-      <c r="M25" s="15">
-        <v>18751</v>
-      </c>
-      <c r="N25" s="15">
         <v>31304</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1272,13 +1002,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1287,13 +1012,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1302,15 +1022,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1329,23 +1044,8 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1354,245 +1054,150 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>904182</v>
+        <v>2283694</v>
       </c>
       <c r="F31" s="9">
-        <v>1364040</v>
+        <v>3173404</v>
       </c>
       <c r="G31" s="9">
-        <v>1879234</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1829607</v>
+        <v>1822183</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="9">
-        <v>1847175</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2283694</v>
-      </c>
-      <c r="K31" s="9">
-        <v>3173404</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1822183</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="9">
         <v>2170893</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>815991</v>
+        <v>2435605</v>
       </c>
       <c r="F32" s="11">
-        <v>1227262</v>
+        <v>2832947</v>
       </c>
       <c r="G32" s="11">
-        <v>2096076</v>
+        <v>1199009</v>
       </c>
       <c r="H32" s="11">
-        <v>1603362</v>
+        <v>1653799</v>
       </c>
       <c r="I32" s="11">
-        <v>1124022</v>
-      </c>
-      <c r="J32" s="11">
-        <v>2435605</v>
-      </c>
-      <c r="K32" s="11">
-        <v>2832947</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1199009</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1653799</v>
-      </c>
-      <c r="N32" s="11">
         <v>2567211</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>735688</v>
+        <v>2232282</v>
       </c>
       <c r="F33" s="9">
-        <v>954037</v>
+        <v>2646316</v>
       </c>
       <c r="G33" s="9">
-        <v>1814663</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1822146</v>
+        <v>1335934</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="9">
-        <v>1225489</v>
-      </c>
-      <c r="J33" s="9">
-        <v>2232282</v>
-      </c>
-      <c r="K33" s="9">
-        <v>2646316</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1335934</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="9">
         <v>2201313</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
         <v>0</v>
       </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
+      <c r="F35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15">
-        <v>2455861</v>
+        <v>6951581</v>
       </c>
       <c r="F36" s="15">
-        <v>3545339</v>
+        <v>8652667</v>
       </c>
       <c r="G36" s="15">
-        <v>5789973</v>
+        <v>4357126</v>
       </c>
       <c r="H36" s="15">
-        <v>5255115</v>
+        <v>1653799</v>
       </c>
       <c r="I36" s="15">
-        <v>4196686</v>
-      </c>
-      <c r="J36" s="15">
-        <v>6951581</v>
-      </c>
-      <c r="K36" s="15">
-        <v>8652667</v>
-      </c>
-      <c r="L36" s="15">
-        <v>4357126</v>
-      </c>
-      <c r="M36" s="15">
-        <v>1653799</v>
-      </c>
-      <c r="N36" s="15">
         <v>6939417</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1601,13 +1206,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1616,13 +1216,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1631,15 +1226,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1658,23 +1248,8 @@
       <c r="I40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1683,208 +1258,128 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>133517720</v>
+        <v>171165792</v>
       </c>
       <c r="F42" s="9">
-        <v>157765441</v>
+        <v>249324639</v>
       </c>
       <c r="G42" s="9">
-        <v>156290253</v>
-      </c>
-      <c r="H42" s="9">
-        <v>235531282</v>
+        <v>261319805</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I42" s="9">
-        <v>241492352</v>
-      </c>
-      <c r="J42" s="9">
-        <v>171165792</v>
-      </c>
-      <c r="K42" s="9">
-        <v>249324639</v>
-      </c>
-      <c r="L42" s="9">
-        <v>261319805</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="9">
         <v>359003307</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>57262526</v>
+        <v>132564361</v>
       </c>
       <c r="F43" s="11">
-        <v>80009257</v>
+        <v>129517990</v>
       </c>
       <c r="G43" s="11">
-        <v>105256403</v>
+        <v>127608450</v>
       </c>
       <c r="H43" s="11">
-        <v>106869426</v>
+        <v>112825692</v>
       </c>
       <c r="I43" s="11">
-        <v>94210209</v>
-      </c>
-      <c r="J43" s="11">
-        <v>132564361</v>
-      </c>
-      <c r="K43" s="11">
-        <v>129517990</v>
-      </c>
-      <c r="L43" s="11">
-        <v>127608450</v>
-      </c>
-      <c r="M43" s="11">
-        <v>112825692</v>
-      </c>
-      <c r="N43" s="11">
         <v>126632023</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>149651749</v>
+        <v>338019685</v>
       </c>
       <c r="F44" s="9">
-        <v>197441432</v>
+        <v>344931700</v>
       </c>
       <c r="G44" s="9">
-        <v>255802509</v>
+        <v>361747631</v>
       </c>
       <c r="H44" s="9">
-        <v>286545998</v>
+        <v>383192768</v>
       </c>
       <c r="I44" s="9">
-        <v>288894154</v>
-      </c>
-      <c r="J44" s="9">
-        <v>338019685</v>
-      </c>
-      <c r="K44" s="9">
-        <v>344931700</v>
-      </c>
-      <c r="L44" s="9">
-        <v>361747631</v>
-      </c>
-      <c r="M44" s="9">
-        <v>383192768</v>
-      </c>
-      <c r="N44" s="9">
         <v>441675963</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1893,13 +1388,8 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1908,13 +1398,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1923,15 +1408,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1950,23 +1430,8 @@
       <c r="I50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1975,245 +1440,150 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>-694407</v>
+        <v>-1882002</v>
       </c>
       <c r="F52" s="9">
-        <v>-966862</v>
+        <v>-2561059</v>
       </c>
       <c r="G52" s="9">
-        <v>-1354680</v>
-      </c>
-      <c r="H52" s="9">
-        <v>-1528202</v>
+        <v>-1612458</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I52" s="9">
-        <v>-1593862</v>
-      </c>
-      <c r="J52" s="9">
-        <v>-1882002</v>
-      </c>
-      <c r="K52" s="9">
-        <v>-2561059</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-1612458</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="9">
         <v>-1725169</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>-709414</v>
+        <v>-2133453</v>
       </c>
       <c r="F53" s="11">
-        <v>-827671</v>
+        <v>-2768399</v>
       </c>
       <c r="G53" s="11">
-        <v>-1571799</v>
+        <v>-1233163</v>
       </c>
       <c r="H53" s="11">
-        <v>-1378362</v>
+        <v>-1910780</v>
       </c>
       <c r="I53" s="11">
-        <v>-1062754</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-2133453</v>
-      </c>
-      <c r="K53" s="11">
-        <v>-2768399</v>
-      </c>
-      <c r="L53" s="11">
-        <v>-1233163</v>
-      </c>
-      <c r="M53" s="11">
-        <v>-1910780</v>
-      </c>
-      <c r="N53" s="11">
         <v>-2614953</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>-538316</v>
+        <v>-1793681</v>
       </c>
       <c r="F54" s="9">
-        <v>-635775</v>
+        <v>-2383859</v>
       </c>
       <c r="G54" s="9">
-        <v>-1452652</v>
-      </c>
-      <c r="H54" s="9">
-        <v>-1674727</v>
+        <v>-1329646</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I54" s="9">
-        <v>-1137089</v>
-      </c>
-      <c r="J54" s="9">
-        <v>-1793681</v>
-      </c>
-      <c r="K54" s="9">
-        <v>-2383859</v>
-      </c>
-      <c r="L54" s="9">
-        <v>-1329646</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="9">
         <v>-2192149</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
+      <c r="F56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="9">
-        <v>0</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>-1942137</v>
+        <v>-5809136</v>
       </c>
       <c r="F57" s="15">
-        <v>-2430308</v>
+        <v>-7713317</v>
       </c>
       <c r="G57" s="15">
-        <v>-4379131</v>
+        <v>-4175267</v>
       </c>
       <c r="H57" s="15">
-        <v>-4581291</v>
+        <v>-1910780</v>
       </c>
       <c r="I57" s="15">
-        <v>-3793705</v>
-      </c>
-      <c r="J57" s="15">
-        <v>-5809136</v>
-      </c>
-      <c r="K57" s="15">
-        <v>-7713317</v>
-      </c>
-      <c r="L57" s="15">
-        <v>-4175267</v>
-      </c>
-      <c r="M57" s="15">
-        <v>-1910780</v>
-      </c>
-      <c r="N57" s="15">
         <v>-6532271</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2222,13 +1592,8 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2237,13 +1602,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2252,15 +1612,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2279,23 +1634,8 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2304,241 +1644,146 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>209775</v>
+        <v>401692</v>
       </c>
       <c r="F63" s="9">
-        <v>397178</v>
+        <v>612345</v>
       </c>
       <c r="G63" s="9">
-        <v>524554</v>
-      </c>
-      <c r="H63" s="9">
-        <v>301405</v>
+        <v>209725</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I63" s="9">
-        <v>253313</v>
-      </c>
-      <c r="J63" s="9">
-        <v>401692</v>
-      </c>
-      <c r="K63" s="9">
-        <v>612345</v>
-      </c>
-      <c r="L63" s="9">
-        <v>209725</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N63" s="9">
         <v>445724</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>106577</v>
+        <v>302152</v>
       </c>
       <c r="F64" s="11">
-        <v>399591</v>
+        <v>64548</v>
       </c>
       <c r="G64" s="11">
-        <v>524277</v>
+        <v>-34154</v>
       </c>
       <c r="H64" s="11">
-        <v>225000</v>
+        <v>-256981</v>
       </c>
       <c r="I64" s="11">
-        <v>61268</v>
-      </c>
-      <c r="J64" s="11">
-        <v>302152</v>
-      </c>
-      <c r="K64" s="11">
-        <v>64548</v>
-      </c>
-      <c r="L64" s="11">
-        <v>-34154</v>
-      </c>
-      <c r="M64" s="11">
-        <v>-256981</v>
-      </c>
-      <c r="N64" s="11">
         <v>-47742</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>197372</v>
+        <v>438601</v>
       </c>
       <c r="F65" s="9">
-        <v>318262</v>
+        <v>262457</v>
       </c>
       <c r="G65" s="9">
-        <v>362011</v>
-      </c>
-      <c r="H65" s="9">
-        <v>147419</v>
+        <v>6288</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I65" s="9">
-        <v>88400</v>
-      </c>
-      <c r="J65" s="9">
-        <v>438601</v>
-      </c>
-      <c r="K65" s="9">
-        <v>262457</v>
-      </c>
-      <c r="L65" s="9">
-        <v>6288</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N65" s="9">
         <v>9164</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="F67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I67" s="9">
         <v>0</v>
       </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>513724</v>
+        <v>1142445</v>
       </c>
       <c r="F68" s="15">
-        <v>1115031</v>
+        <v>939350</v>
       </c>
       <c r="G68" s="15">
-        <v>1410842</v>
+        <v>181859</v>
       </c>
       <c r="H68" s="15">
-        <v>673824</v>
+        <v>-256981</v>
       </c>
       <c r="I68" s="15">
-        <v>402981</v>
-      </c>
-      <c r="J68" s="15">
-        <v>1142445</v>
-      </c>
-      <c r="K68" s="15">
-        <v>939350</v>
-      </c>
-      <c r="L68" s="15">
-        <v>181859</v>
-      </c>
-      <c r="M68" s="15">
-        <v>-256981</v>
-      </c>
-      <c r="N68" s="15">
         <v>407146</v>
       </c>
     </row>

--- a/database/industries/shoyande/shepaksa/product/quarterly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A25EF-F874-491A-9F15-25FFD5E08E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607E576-46EC-4AB3-B42B-1A0A3961900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -581,12 +581,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,7 +601,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,7 +650,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -760,37 +760,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>10768</v>
+        <v>13070</v>
       </c>
       <c r="F10" s="9">
-        <v>13070</v>
+        <v>8901</v>
       </c>
       <c r="G10" s="9">
-        <v>8901</v>
+        <v>9096</v>
       </c>
       <c r="H10" s="9">
-        <v>9096</v>
+        <v>9815</v>
       </c>
       <c r="I10" s="9">
-        <v>9815</v>
+        <v>14045</v>
       </c>
       <c r="J10" s="9">
-        <v>14045</v>
-      </c>
-      <c r="K10" s="9">
         <v>5685</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5876</v>
       </c>
       <c r="M10" s="9">
-        <v>5876</v>
+        <v>2668</v>
       </c>
       <c r="N10" s="9">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -799,37 +799,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>15407</v>
+        <v>18883</v>
       </c>
       <c r="F11" s="11">
-        <v>18883</v>
+        <v>15311</v>
       </c>
       <c r="G11" s="11">
-        <v>15311</v>
+        <v>13062</v>
       </c>
       <c r="H11" s="11">
-        <v>13062</v>
+        <v>18799</v>
       </c>
       <c r="I11" s="11">
-        <v>18799</v>
+        <v>21236</v>
       </c>
       <c r="J11" s="11">
-        <v>21236</v>
+        <v>10578</v>
       </c>
       <c r="K11" s="11">
-        <v>10578</v>
+        <v>13035</v>
       </c>
       <c r="L11" s="11">
-        <v>13035</v>
+        <v>20131</v>
       </c>
       <c r="M11" s="11">
-        <v>20131</v>
+        <v>16714</v>
       </c>
       <c r="N11" s="11">
-        <v>16714</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -838,37 +838,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4712</v>
+        <v>6893</v>
       </c>
       <c r="F12" s="9">
-        <v>6893</v>
+        <v>6466</v>
       </c>
       <c r="G12" s="9">
-        <v>6466</v>
+        <v>4475</v>
       </c>
       <c r="H12" s="9">
-        <v>4475</v>
+        <v>6700</v>
       </c>
       <c r="I12" s="9">
-        <v>6700</v>
+        <v>8480</v>
       </c>
       <c r="J12" s="9">
-        <v>8480</v>
+        <v>3637</v>
       </c>
       <c r="K12" s="9">
-        <v>3637</v>
+        <v>4373</v>
       </c>
       <c r="L12" s="9">
-        <v>4373</v>
+        <v>4727</v>
       </c>
       <c r="M12" s="9">
-        <v>4727</v>
+        <v>5497</v>
       </c>
       <c r="N12" s="9">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -883,11 +883,11 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>17</v>
@@ -895,8 +895,8 @@
       <c r="K13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>17</v>
+      <c r="L13" s="11">
+        <v>0</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -937,51 +937,51 @@
       <c r="L14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>17</v>
+      <c r="M14" s="9">
+        <v>2759</v>
       </c>
       <c r="N14" s="9">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>30887</v>
+        <v>38846</v>
       </c>
       <c r="F15" s="13">
-        <v>38846</v>
+        <v>30678</v>
       </c>
       <c r="G15" s="13">
-        <v>30678</v>
+        <v>26633</v>
       </c>
       <c r="H15" s="13">
-        <v>26633</v>
+        <v>35314</v>
       </c>
       <c r="I15" s="13">
-        <v>35314</v>
+        <v>43761</v>
       </c>
       <c r="J15" s="13">
-        <v>43761</v>
+        <v>19900</v>
       </c>
       <c r="K15" s="13">
-        <v>19900</v>
+        <v>17408</v>
       </c>
       <c r="L15" s="13">
-        <v>17408</v>
+        <v>30734</v>
       </c>
       <c r="M15" s="13">
-        <v>30734</v>
+        <v>27638</v>
       </c>
       <c r="N15" s="13">
-        <v>27638</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21965</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -996,7 +996,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1011,7 +1011,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1026,7 +1026,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1087,37 +1087,37 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>8646</v>
+        <v>6554</v>
       </c>
       <c r="F21" s="9">
-        <v>6554</v>
+        <v>7768</v>
       </c>
       <c r="G21" s="9">
-        <v>7768</v>
+        <v>7649</v>
       </c>
       <c r="H21" s="9">
-        <v>7649</v>
+        <v>13342</v>
       </c>
       <c r="I21" s="9">
-        <v>13342</v>
+        <v>12728</v>
       </c>
       <c r="J21" s="9">
-        <v>12728</v>
-      </c>
-      <c r="K21" s="9">
         <v>6973</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>17</v>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9">
+        <v>6047</v>
       </c>
       <c r="M21" s="9">
-        <v>6047</v>
+        <v>2911</v>
       </c>
       <c r="N21" s="9">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1126,37 +1126,37 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>15339</v>
+        <v>19914</v>
       </c>
       <c r="F22" s="11">
-        <v>19914</v>
+        <v>15003</v>
       </c>
       <c r="G22" s="11">
-        <v>15003</v>
+        <v>11931</v>
       </c>
       <c r="H22" s="11">
-        <v>11931</v>
+        <v>18373</v>
       </c>
       <c r="I22" s="11">
-        <v>18373</v>
+        <v>21873</v>
       </c>
       <c r="J22" s="11">
-        <v>21873</v>
+        <v>9396</v>
       </c>
       <c r="K22" s="11">
-        <v>9396</v>
+        <v>14658</v>
       </c>
       <c r="L22" s="11">
-        <v>14658</v>
+        <v>20273</v>
       </c>
       <c r="M22" s="11">
-        <v>20273</v>
+        <v>17120</v>
       </c>
       <c r="N22" s="11">
-        <v>17120</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13898</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>4832</v>
+        <v>7094</v>
       </c>
       <c r="F23" s="9">
-        <v>7094</v>
+        <v>6359</v>
       </c>
       <c r="G23" s="9">
-        <v>6359</v>
+        <v>4242</v>
       </c>
       <c r="H23" s="9">
-        <v>4242</v>
+        <v>6604</v>
       </c>
       <c r="I23" s="9">
-        <v>6604</v>
+        <v>7672</v>
       </c>
       <c r="J23" s="9">
-        <v>7672</v>
+        <v>3693</v>
       </c>
       <c r="K23" s="9">
-        <v>3693</v>
+        <v>4093</v>
       </c>
       <c r="L23" s="9">
-        <v>4093</v>
+        <v>4984</v>
       </c>
       <c r="M23" s="9">
-        <v>4984</v>
+        <v>4564</v>
       </c>
       <c r="N23" s="9">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
@@ -1212,8 +1212,8 @@
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
+      <c r="H24" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>17</v>
@@ -1234,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -1252,8 +1252,8 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="9">
-        <v>0</v>
+      <c r="I25" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>17</v>
@@ -1261,8 +1261,8 @@
       <c r="K25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>17</v>
+      <c r="L25" s="9">
+        <v>0</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1303,51 +1303,51 @@
       <c r="L26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>17</v>
+      <c r="M26" s="11">
+        <v>2759</v>
       </c>
       <c r="N26" s="11">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>28817</v>
+        <v>33562</v>
       </c>
       <c r="F27" s="15">
-        <v>33562</v>
+        <v>29130</v>
       </c>
       <c r="G27" s="15">
-        <v>29130</v>
+        <v>23822</v>
       </c>
       <c r="H27" s="15">
-        <v>23822</v>
+        <v>38319</v>
       </c>
       <c r="I27" s="15">
-        <v>38319</v>
+        <v>42273</v>
       </c>
       <c r="J27" s="15">
-        <v>42273</v>
+        <v>20062</v>
       </c>
       <c r="K27" s="15">
-        <v>20062</v>
+        <v>18751</v>
       </c>
       <c r="L27" s="15">
-        <v>18751</v>
+        <v>31304</v>
       </c>
       <c r="M27" s="15">
-        <v>31304</v>
+        <v>27354</v>
       </c>
       <c r="N27" s="15">
-        <v>27354</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1377,7 +1377,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1444,7 +1444,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1453,37 +1453,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1364040</v>
+        <v>1879234</v>
       </c>
       <c r="F33" s="9">
-        <v>1879234</v>
+        <v>1829607</v>
       </c>
       <c r="G33" s="9">
-        <v>1829607</v>
+        <v>1847175</v>
       </c>
       <c r="H33" s="9">
-        <v>1847175</v>
+        <v>2283694</v>
       </c>
       <c r="I33" s="9">
-        <v>2283694</v>
+        <v>3173404</v>
       </c>
       <c r="J33" s="9">
-        <v>3173404</v>
-      </c>
-      <c r="K33" s="9">
         <v>1822183</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>17</v>
+      <c r="K33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="9">
+        <v>2170893</v>
       </c>
       <c r="M33" s="9">
-        <v>2170893</v>
+        <v>1394719</v>
       </c>
       <c r="N33" s="9">
-        <v>1394719</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1276383</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -1492,37 +1492,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1227262</v>
+        <v>2096076</v>
       </c>
       <c r="F34" s="11">
-        <v>2096076</v>
+        <v>1603362</v>
       </c>
       <c r="G34" s="11">
-        <v>1603362</v>
+        <v>1124022</v>
       </c>
       <c r="H34" s="11">
-        <v>1124022</v>
+        <v>2435605</v>
       </c>
       <c r="I34" s="11">
-        <v>2435605</v>
+        <v>2832947</v>
       </c>
       <c r="J34" s="11">
-        <v>2832947</v>
+        <v>1199009</v>
       </c>
       <c r="K34" s="11">
-        <v>1199009</v>
+        <v>1653799</v>
       </c>
       <c r="L34" s="11">
-        <v>1653799</v>
+        <v>2567211</v>
       </c>
       <c r="M34" s="11">
-        <v>2567211</v>
+        <v>2656497</v>
       </c>
       <c r="N34" s="11">
-        <v>2656497</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2485794</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
@@ -1531,37 +1531,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>954037</v>
+        <v>1814663</v>
       </c>
       <c r="F35" s="9">
-        <v>1814663</v>
+        <v>1822146</v>
       </c>
       <c r="G35" s="9">
-        <v>1822146</v>
+        <v>1225489</v>
       </c>
       <c r="H35" s="9">
-        <v>1225489</v>
+        <v>2232282</v>
       </c>
       <c r="I35" s="9">
-        <v>2232282</v>
+        <v>2646316</v>
       </c>
       <c r="J35" s="9">
-        <v>2646316</v>
-      </c>
-      <c r="K35" s="9">
         <v>1335934</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>17</v>
+      <c r="K35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2201313</v>
       </c>
       <c r="M35" s="9">
-        <v>2201313</v>
+        <v>2171816</v>
       </c>
       <c r="N35" s="9">
-        <v>2171816</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2466128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
@@ -1578,8 +1578,8 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>17</v>
@@ -1600,7 +1600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>20</v>
       </c>
@@ -1620,8 +1620,8 @@
       <c r="H37" s="9">
         <v>0</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>17</v>
@@ -1629,8 +1629,8 @@
       <c r="K37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>17</v>
+      <c r="L37" s="9">
+        <v>0</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1671,51 +1671,51 @@
       <c r="L38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>17</v>
+      <c r="M38" s="11">
+        <v>130621</v>
       </c>
       <c r="N38" s="11">
-        <v>130621</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>129789</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>3545339</v>
+        <v>5789973</v>
       </c>
       <c r="F39" s="15">
-        <v>5789973</v>
+        <v>5255115</v>
       </c>
       <c r="G39" s="15">
-        <v>5255115</v>
+        <v>4196686</v>
       </c>
       <c r="H39" s="15">
-        <v>4196686</v>
+        <v>6951581</v>
       </c>
       <c r="I39" s="15">
-        <v>6951581</v>
+        <v>8652667</v>
       </c>
       <c r="J39" s="15">
-        <v>8652667</v>
+        <v>4357126</v>
       </c>
       <c r="K39" s="15">
-        <v>4357126</v>
+        <v>1653799</v>
       </c>
       <c r="L39" s="15">
-        <v>1653799</v>
+        <v>6939417</v>
       </c>
       <c r="M39" s="15">
-        <v>6939417</v>
+        <v>6353653</v>
       </c>
       <c r="N39" s="15">
-        <v>6353653</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6358094</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1730,7 +1730,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1745,7 +1745,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1760,7 +1760,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
@@ -1821,37 +1821,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>157765441</v>
+        <v>156290253</v>
       </c>
       <c r="F45" s="9">
-        <v>156290253</v>
+        <v>235531282</v>
       </c>
       <c r="G45" s="9">
-        <v>235531282</v>
+        <v>241492352</v>
       </c>
       <c r="H45" s="9">
-        <v>241492352</v>
+        <v>171165792</v>
       </c>
       <c r="I45" s="9">
-        <v>171165792</v>
+        <v>249324639</v>
       </c>
       <c r="J45" s="9">
-        <v>249324639</v>
-      </c>
-      <c r="K45" s="9">
         <v>261319805</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>17</v>
+      <c r="K45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="9">
+        <v>359003307</v>
       </c>
       <c r="M45" s="9">
-        <v>359003307</v>
+        <v>479120234</v>
       </c>
       <c r="N45" s="9">
-        <v>479120234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>343483046</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
@@ -1860,37 +1860,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>80009257</v>
+        <v>105256403</v>
       </c>
       <c r="F46" s="11">
-        <v>105256403</v>
+        <v>106869426</v>
       </c>
       <c r="G46" s="11">
-        <v>106869426</v>
+        <v>94210209</v>
       </c>
       <c r="H46" s="11">
-        <v>94210209</v>
+        <v>132564361</v>
       </c>
       <c r="I46" s="11">
-        <v>132564361</v>
+        <v>129517990</v>
       </c>
       <c r="J46" s="11">
-        <v>129517990</v>
+        <v>127608450</v>
       </c>
       <c r="K46" s="11">
-        <v>127608450</v>
+        <v>112825692</v>
       </c>
       <c r="L46" s="11">
-        <v>112825692</v>
+        <v>126632023</v>
       </c>
       <c r="M46" s="11">
-        <v>126632023</v>
+        <v>155169217</v>
       </c>
       <c r="N46" s="11">
-        <v>155169217</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>178859836</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
@@ -1899,37 +1899,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>197441432</v>
+        <v>255802509</v>
       </c>
       <c r="F47" s="9">
-        <v>255802509</v>
+        <v>286545998</v>
       </c>
       <c r="G47" s="9">
-        <v>286545998</v>
+        <v>288894154</v>
       </c>
       <c r="H47" s="9">
-        <v>288894154</v>
+        <v>338019685</v>
       </c>
       <c r="I47" s="9">
-        <v>338019685</v>
+        <v>344931700</v>
       </c>
       <c r="J47" s="9">
-        <v>344931700</v>
+        <v>361747631</v>
       </c>
       <c r="K47" s="9">
-        <v>361747631</v>
+        <v>383192768</v>
       </c>
       <c r="L47" s="9">
-        <v>383192768</v>
+        <v>441675963</v>
       </c>
       <c r="M47" s="9">
-        <v>441675963</v>
+        <v>475858019</v>
       </c>
       <c r="N47" s="9">
-        <v>475858019</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>529098477</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>21</v>
       </c>
@@ -2039,14 +2039,14 @@
       <c r="L50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M50" s="11" t="s">
-        <v>17</v>
+      <c r="M50" s="11">
+        <v>47343603</v>
       </c>
       <c r="N50" s="11">
-        <v>47343603</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56405476</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2076,7 +2076,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2143,7 +2143,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2152,37 +2152,37 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>-966862</v>
+        <v>-1354680</v>
       </c>
       <c r="F56" s="9">
-        <v>-1354680</v>
+        <v>-1528202</v>
       </c>
       <c r="G56" s="9">
-        <v>-1528202</v>
+        <v>-1593862</v>
       </c>
       <c r="H56" s="9">
-        <v>-1593862</v>
+        <v>-1882002</v>
       </c>
       <c r="I56" s="9">
-        <v>-1882002</v>
+        <v>-2561059</v>
       </c>
       <c r="J56" s="9">
-        <v>-2561059</v>
-      </c>
-      <c r="K56" s="9">
         <v>-1612458</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>17</v>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-1725169</v>
       </c>
       <c r="M56" s="9">
-        <v>-1725169</v>
+        <v>-1248730</v>
       </c>
       <c r="N56" s="9">
-        <v>-1248730</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1093779</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>18</v>
       </c>
@@ -2191,37 +2191,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>-827671</v>
+        <v>-1571799</v>
       </c>
       <c r="F57" s="11">
-        <v>-1571799</v>
+        <v>-1378362</v>
       </c>
       <c r="G57" s="11">
-        <v>-1378362</v>
+        <v>-1062754</v>
       </c>
       <c r="H57" s="11">
-        <v>-1062754</v>
+        <v>-2133453</v>
       </c>
       <c r="I57" s="11">
-        <v>-2133453</v>
+        <v>-2768399</v>
       </c>
       <c r="J57" s="11">
-        <v>-2768399</v>
+        <v>-1233163</v>
       </c>
       <c r="K57" s="11">
-        <v>-1233163</v>
+        <v>-1910780</v>
       </c>
       <c r="L57" s="11">
-        <v>-1910780</v>
+        <v>-2614953</v>
       </c>
       <c r="M57" s="11">
-        <v>-2614953</v>
+        <v>-2538572</v>
       </c>
       <c r="N57" s="11">
-        <v>-2538572</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2253009</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>19</v>
       </c>
@@ -2230,37 +2230,37 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>-635775</v>
+        <v>-1452652</v>
       </c>
       <c r="F58" s="9">
-        <v>-1452652</v>
+        <v>-1674727</v>
       </c>
       <c r="G58" s="9">
-        <v>-1674727</v>
+        <v>-1137089</v>
       </c>
       <c r="H58" s="9">
-        <v>-1137089</v>
+        <v>-1793681</v>
       </c>
       <c r="I58" s="9">
-        <v>-1793681</v>
+        <v>-2383859</v>
       </c>
       <c r="J58" s="9">
-        <v>-2383859</v>
-      </c>
-      <c r="K58" s="9">
         <v>-1329646</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>17</v>
+      <c r="K58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-2192149</v>
       </c>
       <c r="M58" s="9">
-        <v>-2192149</v>
+        <v>-1994107</v>
       </c>
       <c r="N58" s="9">
-        <v>-1994107</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2434485</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2277,8 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
+      <c r="H59" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>17</v>
@@ -2299,7 +2299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>20</v>
       </c>
@@ -2319,8 +2319,8 @@
       <c r="H60" s="9">
         <v>0</v>
       </c>
-      <c r="I60" s="9">
-        <v>0</v>
+      <c r="I60" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>17</v>
@@ -2328,8 +2328,8 @@
       <c r="K60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>17</v>
+      <c r="L60" s="9">
+        <v>0</v>
       </c>
       <c r="M60" s="9">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>21</v>
       </c>
@@ -2370,51 +2370,51 @@
       <c r="L61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M61" s="11" t="s">
-        <v>17</v>
+      <c r="M61" s="11">
+        <v>-67424</v>
       </c>
       <c r="N61" s="11">
-        <v>-67424</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-84044</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
-        <v>-2430308</v>
+        <v>-4379131</v>
       </c>
       <c r="F62" s="15">
-        <v>-4379131</v>
+        <v>-4581291</v>
       </c>
       <c r="G62" s="15">
-        <v>-4581291</v>
+        <v>-3793705</v>
       </c>
       <c r="H62" s="15">
-        <v>-3793705</v>
+        <v>-5809136</v>
       </c>
       <c r="I62" s="15">
-        <v>-5809136</v>
+        <v>-7713317</v>
       </c>
       <c r="J62" s="15">
-        <v>-7713317</v>
+        <v>-4175267</v>
       </c>
       <c r="K62" s="15">
-        <v>-4175267</v>
+        <v>-1910780</v>
       </c>
       <c r="L62" s="15">
-        <v>-1910780</v>
+        <v>-6532271</v>
       </c>
       <c r="M62" s="15">
-        <v>-6532271</v>
+        <v>-5848833</v>
       </c>
       <c r="N62" s="15">
-        <v>-5848833</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5865317</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2429,7 +2429,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2444,7 +2444,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2511,7 +2511,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>15</v>
       </c>
@@ -2520,37 +2520,37 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>397178</v>
+        <v>524554</v>
       </c>
       <c r="F68" s="9">
-        <v>524554</v>
+        <v>301405</v>
       </c>
       <c r="G68" s="9">
-        <v>301405</v>
+        <v>253313</v>
       </c>
       <c r="H68" s="9">
-        <v>253313</v>
+        <v>401692</v>
       </c>
       <c r="I68" s="9">
-        <v>401692</v>
+        <v>612345</v>
       </c>
       <c r="J68" s="9">
-        <v>612345</v>
-      </c>
-      <c r="K68" s="9">
         <v>209725</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>17</v>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9">
+        <v>445724</v>
       </c>
       <c r="M68" s="9">
-        <v>445724</v>
+        <v>145989</v>
       </c>
       <c r="N68" s="9">
-        <v>145989</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182604</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -2559,37 +2559,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>399591</v>
+        <v>524277</v>
       </c>
       <c r="F69" s="11">
-        <v>524277</v>
+        <v>225000</v>
       </c>
       <c r="G69" s="11">
-        <v>225000</v>
+        <v>61268</v>
       </c>
       <c r="H69" s="11">
-        <v>61268</v>
+        <v>302152</v>
       </c>
       <c r="I69" s="11">
-        <v>302152</v>
+        <v>64548</v>
       </c>
       <c r="J69" s="11">
-        <v>64548</v>
+        <v>-34154</v>
       </c>
       <c r="K69" s="11">
-        <v>-34154</v>
+        <v>-256981</v>
       </c>
       <c r="L69" s="11">
-        <v>-256981</v>
+        <v>-47742</v>
       </c>
       <c r="M69" s="11">
-        <v>-47742</v>
+        <v>117925</v>
       </c>
       <c r="N69" s="11">
-        <v>117925</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232785</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
@@ -2598,37 +2598,37 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>318262</v>
+        <v>362011</v>
       </c>
       <c r="F70" s="9">
-        <v>362011</v>
+        <v>147419</v>
       </c>
       <c r="G70" s="9">
-        <v>147419</v>
+        <v>88400</v>
       </c>
       <c r="H70" s="9">
-        <v>88400</v>
+        <v>438601</v>
       </c>
       <c r="I70" s="9">
-        <v>438601</v>
+        <v>262457</v>
       </c>
       <c r="J70" s="9">
-        <v>262457</v>
-      </c>
-      <c r="K70" s="9">
         <v>6288</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>17</v>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9">
+        <v>9164</v>
       </c>
       <c r="M70" s="9">
-        <v>9164</v>
+        <v>177709</v>
       </c>
       <c r="N70" s="9">
-        <v>177709</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31643</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>24</v>
       </c>
@@ -2645,8 +2645,8 @@
       <c r="G71" s="11">
         <v>0</v>
       </c>
-      <c r="H71" s="11">
-        <v>0</v>
+      <c r="H71" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>20</v>
       </c>
@@ -2687,8 +2687,8 @@
       <c r="H72" s="9">
         <v>0</v>
       </c>
-      <c r="I72" s="9">
-        <v>0</v>
+      <c r="I72" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>17</v>
@@ -2696,8 +2696,8 @@
       <c r="K72" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>17</v>
+      <c r="L72" s="9">
+        <v>0</v>
       </c>
       <c r="M72" s="9">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2738,48 +2738,48 @@
       <c r="L73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="11" t="s">
-        <v>17</v>
+      <c r="M73" s="11">
+        <v>63197</v>
       </c>
       <c r="N73" s="11">
-        <v>63197</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>1115031</v>
+        <v>1410842</v>
       </c>
       <c r="F74" s="15">
-        <v>1410842</v>
+        <v>673824</v>
       </c>
       <c r="G74" s="15">
-        <v>673824</v>
+        <v>402981</v>
       </c>
       <c r="H74" s="15">
-        <v>402981</v>
+        <v>1142445</v>
       </c>
       <c r="I74" s="15">
-        <v>1142445</v>
+        <v>939350</v>
       </c>
       <c r="J74" s="15">
-        <v>939350</v>
+        <v>181859</v>
       </c>
       <c r="K74" s="15">
-        <v>181859</v>
+        <v>-256981</v>
       </c>
       <c r="L74" s="15">
-        <v>-256981</v>
+        <v>407146</v>
       </c>
       <c r="M74" s="15">
-        <v>407146</v>
+        <v>504820</v>
       </c>
       <c r="N74" s="15">
-        <v>504820</v>
+        <v>492777</v>
       </c>
     </row>
   </sheetData>
